--- a/output/table3/Table3_ZLB_intraday_volume.xlsx
+++ b/output/table3/Table3_ZLB_intraday_volume.xlsx
@@ -2385,94 +2385,94 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3941.16301843318</v>
+        <v>4178.681720430108</v>
       </c>
       <c r="E26" t="n">
-        <v>2832.291849539774</v>
+        <v>2919.149727889589</v>
       </c>
       <c r="F26" t="n">
-        <v>1763.612903225806</v>
+        <v>1727.225806451613</v>
       </c>
       <c r="G26" t="n">
-        <v>3087.967741935484</v>
+        <v>3726.612903225806</v>
       </c>
       <c r="H26" t="n">
-        <v>5314.032258064516</v>
+        <v>5975.967741935484</v>
       </c>
       <c r="I26" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J26" t="n">
-        <v>4490.332259953161</v>
+        <v>4467.179234972678</v>
       </c>
       <c r="K26" t="n">
-        <v>1972.340842466487</v>
+        <v>1841.843065169242</v>
       </c>
       <c r="L26" t="n">
-        <v>3164.622950819672</v>
+        <v>3168.852459016393</v>
       </c>
       <c r="M26" t="n">
-        <v>3864.336065573771</v>
+        <v>3878.131147540983</v>
       </c>
       <c r="N26" t="n">
-        <v>5297.971311475409</v>
+        <v>5485.163934426229</v>
       </c>
       <c r="O26" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="P26" t="n">
-        <v>4304.848435655254</v>
+        <v>4188.48668503214</v>
       </c>
       <c r="Q26" t="n">
-        <v>1758.970960276598</v>
+        <v>1506.06581302919</v>
       </c>
       <c r="R26" t="n">
-        <v>3058.762396694215</v>
+        <v>2909.413223140496</v>
       </c>
       <c r="S26" t="n">
-        <v>3989.45041322314</v>
+        <v>4010.363636363636</v>
       </c>
       <c r="T26" t="n">
-        <v>5108.886363636364</v>
+        <v>5059.297520661157</v>
       </c>
       <c r="U26" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="V26" t="n">
-        <v>3904.517942176871</v>
+        <v>3771.793121693122</v>
       </c>
       <c r="W26" t="n">
-        <v>1434.48907342313</v>
+        <v>1222.595510054101</v>
       </c>
       <c r="X26" t="n">
-        <v>2922.695238095238</v>
+        <v>2936.738095238095</v>
       </c>
       <c r="Y26" t="n">
-        <v>3688.926190476191</v>
+        <v>3673.92380952381</v>
       </c>
       <c r="Z26" t="n">
-        <v>4515.289285714286</v>
+        <v>4499.547619047619</v>
       </c>
       <c r="AA26" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AB26" t="n">
-        <v>1158.403990800866</v>
+        <v>1101.638114478115</v>
       </c>
       <c r="AC26" t="n">
-        <v>412.5478986547093</v>
+        <v>262.6569382038755</v>
       </c>
       <c r="AD26" t="n">
-        <v>946.1522727272727</v>
+        <v>940.1931818181819</v>
       </c>
       <c r="AE26" t="n">
-        <v>1077.883333333333</v>
+        <v>1053.273484848485</v>
       </c>
       <c r="AF26" t="n">
-        <v>1268.604924242424</v>
+        <v>1267.327272727273</v>
       </c>
       <c r="AG26" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1507.204445084485</v>
+        <v>1869.684050179211</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>1984.030420569867</v>
+        <v>2080.352367941713</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>1804.677599862259</v>
+        <v>1797.004545454545</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
-        <v>1275.619742063492</v>
+        <v>1234.992328042328</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -2524,7 +2524,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>163.7236424192683</v>
+        <v>107.3329419191919</v>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -2565,7 +2565,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>

--- a/output/table3/Table3_ZLB_intraday_volume.xlsx
+++ b/output/table3/Table3_ZLB_intraday_volume.xlsx
@@ -2524,7 +2524,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>107.3329419191919</v>
+        <v>306.1939764309765</v>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>

--- a/output/table3/Table3_ZLB_intraday_volume.xlsx
+++ b/output/table3/Table3_ZLB_intraday_volume.xlsx
@@ -2385,94 +2385,94 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4178.681720430108</v>
+        <v>2907.088563049853</v>
       </c>
       <c r="E26" t="n">
-        <v>2919.149727889589</v>
+        <v>1974.531565988283</v>
       </c>
       <c r="F26" t="n">
-        <v>1727.225806451613</v>
+        <v>1410.790322580645</v>
       </c>
       <c r="G26" t="n">
-        <v>3726.612903225806</v>
+        <v>2611.032258064516</v>
       </c>
       <c r="H26" t="n">
-        <v>5975.967741935484</v>
+        <v>3856.145161290323</v>
       </c>
       <c r="I26" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J26" t="n">
-        <v>4467.179234972678</v>
+        <v>2775.439344262295</v>
       </c>
       <c r="K26" t="n">
-        <v>1841.843065169242</v>
+        <v>1665.119894543583</v>
       </c>
       <c r="L26" t="n">
-        <v>3168.852459016393</v>
+        <v>1492.647540983607</v>
       </c>
       <c r="M26" t="n">
-        <v>3878.131147540983</v>
+        <v>2643.967213114754</v>
       </c>
       <c r="N26" t="n">
-        <v>5485.163934426229</v>
+        <v>3444.491803278688</v>
       </c>
       <c r="O26" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="P26" t="n">
-        <v>4188.48668503214</v>
+        <v>2673.216078136739</v>
       </c>
       <c r="Q26" t="n">
-        <v>1506.06581302919</v>
+        <v>1375.036670207617</v>
       </c>
       <c r="R26" t="n">
-        <v>2909.413223140496</v>
+        <v>1773.921487603306</v>
       </c>
       <c r="S26" t="n">
-        <v>4010.363636363636</v>
+        <v>2587.595041322314</v>
       </c>
       <c r="T26" t="n">
-        <v>5059.297520661157</v>
+        <v>3331.252066115702</v>
       </c>
       <c r="U26" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="V26" t="n">
-        <v>3771.793121693122</v>
+        <v>2699.193506493507</v>
       </c>
       <c r="W26" t="n">
-        <v>1222.595510054101</v>
+        <v>1282.414699774348</v>
       </c>
       <c r="X26" t="n">
-        <v>2936.738095238095</v>
+        <v>1799.816666666667</v>
       </c>
       <c r="Y26" t="n">
-        <v>3673.92380952381</v>
+        <v>2521.214285714286</v>
       </c>
       <c r="Z26" t="n">
-        <v>4499.547619047619</v>
+        <v>3374.047619047619</v>
       </c>
       <c r="AA26" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AB26" t="n">
-        <v>1101.638114478115</v>
+        <v>1021.348374655647</v>
       </c>
       <c r="AC26" t="n">
-        <v>262.6569382038755</v>
+        <v>373.4273485732075</v>
       </c>
       <c r="AD26" t="n">
-        <v>940.1931818181819</v>
+        <v>743.9681818181818</v>
       </c>
       <c r="AE26" t="n">
-        <v>1053.273484848485</v>
+        <v>1036.163636363636</v>
       </c>
       <c r="AF26" t="n">
-        <v>1267.327272727273</v>
+        <v>1281.311363636364</v>
       </c>
       <c r="AG26" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1869.684050179211</v>
+        <v>763.0384164222874</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>2080.352367941713</v>
+        <v>633.05521609538</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>1797.004545454545</v>
+        <v>475.7980841472577</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
-        <v>1234.992328042328</v>
+        <v>392.6928354978355</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -2524,7 +2524,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>306.1939764309765</v>
+        <v>103.9634159779614</v>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -2565,7 +2565,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
